--- a/9_ModelCode.xlsx
+++ b/9_ModelCode.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="abstract-concrete" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="attributes" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Outage::OutageSchedule</t>
   </si>
@@ -39,7 +39,106 @@
     <t>Core::RegularIntervalSchedule</t>
   </si>
   <si>
-    <t>Core::RegularIntervalTimePoint</t>
+    <t>Core::RegularTimePoint</t>
+  </si>
+  <si>
+    <t>Core::IdentifiedObject</t>
+  </si>
+  <si>
+    <t>Core::PowerSystemResource</t>
+  </si>
+  <si>
+    <t>Core::Equipment</t>
+  </si>
+  <si>
+    <t>Core::ConductingEquipment</t>
+  </si>
+  <si>
+    <t>Wires::Switch</t>
+  </si>
+  <si>
+    <t>Core::BasicIntervalSchedule</t>
+  </si>
+  <si>
+    <t>Core::IrregularIntervalSchedule</t>
+  </si>
+  <si>
+    <t>IdentifiedObject</t>
+  </si>
+  <si>
+    <t>aliasName: String</t>
+  </si>
+  <si>
+    <t>mRID: String</t>
+  </si>
+  <si>
+    <t>name: String</t>
+  </si>
+  <si>
+    <t>BasicIntervalSchedule</t>
+  </si>
+  <si>
+    <t>startTime: DateTime</t>
+  </si>
+  <si>
+    <t>value1Multiplier: UnitMultiplier</t>
+  </si>
+  <si>
+    <t>value1Unit: UnitSymbol</t>
+  </si>
+  <si>
+    <t>value2Multiplier: UnitMultiplier</t>
+  </si>
+  <si>
+    <t>value2Unit: UnitSymbol</t>
+  </si>
+  <si>
+    <t>SwitchingOperation</t>
+  </si>
+  <si>
+    <t>newState: SwitchState</t>
+  </si>
+  <si>
+    <t>operationTime: DateTime</t>
+  </si>
+  <si>
+    <t>OutageSchedule: REFERENCE</t>
+  </si>
+  <si>
+    <t>IrregularTimePoint</t>
+  </si>
+  <si>
+    <t>time: Secounds</t>
+  </si>
+  <si>
+    <t>value1: Float</t>
+  </si>
+  <si>
+    <t>value2: Float</t>
+  </si>
+  <si>
+    <t>IntervalSchedule: REFERENCE</t>
+  </si>
+  <si>
+    <t>RegularIntervalSchedule</t>
+  </si>
+  <si>
+    <t>endTime: DateTime</t>
+  </si>
+  <si>
+    <t>timeStep: Secounds</t>
+  </si>
+  <si>
+    <t>RegularTimePoint</t>
+  </si>
+  <si>
+    <t>sequenceNumber: Integer</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SwitchingOperations: REFERENCE</t>
   </si>
 </sst>
 </file>
@@ -426,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,33 +546,56 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
       <c r="B7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -484,12 +606,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/9_ModelCode.xlsx
+++ b/9_ModelCode.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Outage::OutageSchedule</t>
   </si>
@@ -102,9 +102,6 @@
     <t>operationTime: DateTime</t>
   </si>
   <si>
-    <t>OutageSchedule: REFERENCE</t>
-  </si>
-  <si>
     <t>IrregularTimePoint</t>
   </si>
   <si>
@@ -117,18 +114,12 @@
     <t>value2: Float</t>
   </si>
   <si>
-    <t>IntervalSchedule: REFERENCE</t>
-  </si>
-  <si>
     <t>RegularIntervalSchedule</t>
   </si>
   <si>
     <t>endTime: DateTime</t>
   </si>
   <si>
-    <t>timeStep: Secounds</t>
-  </si>
-  <si>
     <t>RegularTimePoint</t>
   </si>
   <si>
@@ -138,14 +129,77 @@
     <t>Switch</t>
   </si>
   <si>
-    <t>SwitchingOperations: REFERENCE</t>
+    <r>
+      <t xml:space="preserve">OutageSchedule: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REFERENCE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IntervalSchedule: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REFERENCE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SwitchingOperations: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REFERENCE</t>
+    </r>
+  </si>
+  <si>
+    <t>timeStep: Secouds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer-&gt;int32 </t>
+  </si>
+  <si>
+    <t>SwitchState-&gt;enum</t>
+  </si>
+  <si>
+    <t>UnitMultiplier-&gt;enum</t>
+  </si>
+  <si>
+    <t>UnitSymbol-&gt;enum</t>
+  </si>
+  <si>
+    <t>Secounds-&gt;float?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +231,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +260,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -214,15 +290,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -606,124 +700,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/9_ModelCode.xlsx
+++ b/9_ModelCode.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="abstract-concrete" sheetId="1" r:id="rId1"/>
     <sheet name="attributes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -703,7 +702,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,16 +851,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>